--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.51700251343437</v>
+        <v>81.26071957657516</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.80203266057491</v>
+        <v>111.1845014945588</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.89952287685183</v>
+        <v>100.5732087203746</v>
       </c>
       <c r="AD2" t="n">
-        <v>60517.00251343437</v>
+        <v>81260.71957657515</v>
       </c>
       <c r="AE2" t="n">
-        <v>82802.03266057491</v>
+        <v>111184.5014945588</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.822355635618296e-06</v>
+        <v>8.152431468979639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.201388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>74899.52287685183</v>
+        <v>100573.2087203746</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.40300822011883</v>
+        <v>78.49889256181825</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.90957240561598</v>
+        <v>107.4056479297617</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.28311496903181</v>
+        <v>97.15500363614616</v>
       </c>
       <c r="AD2" t="n">
-        <v>58403.00822011883</v>
+        <v>78498.89256181825</v>
       </c>
       <c r="AE2" t="n">
-        <v>79909.57240561598</v>
+        <v>107405.6479297617</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.092996306710146e-06</v>
+        <v>8.820005205105243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72283.11496903181</v>
+        <v>97155.00363614617</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.38598989032558</v>
+        <v>71.53146976973547</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.04506659156864</v>
+        <v>97.8725126846391</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.07374795548054</v>
+        <v>88.53169743897571</v>
       </c>
       <c r="AD2" t="n">
-        <v>53385.98989032558</v>
+        <v>71531.46976973547</v>
       </c>
       <c r="AE2" t="n">
-        <v>73045.06659156864</v>
+        <v>97872.51268463911</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.383398429356582e-06</v>
+        <v>1.018654828034087e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>66073.74795548055</v>
+        <v>88531.69743897571</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.04241909799435</v>
+        <v>73.95042930991843</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.31146610999907</v>
+        <v>101.1822398444789</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.1238454847844</v>
+        <v>91.52554888391276</v>
       </c>
       <c r="AD2" t="n">
-        <v>55042.41909799435</v>
+        <v>73950.42930991843</v>
       </c>
       <c r="AE2" t="n">
-        <v>75311.46610999908</v>
+        <v>101182.2398444789</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.414257308810575e-06</v>
+        <v>9.863600976512563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.131944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>68123.8454847844</v>
+        <v>91525.54888391276</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.28273664094329</v>
+        <v>78.60534568757326</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.53554682366629</v>
+        <v>107.5513017928001</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.70829463560202</v>
+        <v>97.28675649892271</v>
       </c>
       <c r="AD2" t="n">
-        <v>52282.73664094329</v>
+        <v>78605.34568757327</v>
       </c>
       <c r="AE2" t="n">
-        <v>71535.5468236663</v>
+        <v>107551.3017928001</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.196040556558773e-06</v>
+        <v>1.018256532415784e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.678819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>64708.29463560201</v>
+        <v>97286.75649892271</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.9988538913214</v>
+        <v>79.26501552533271</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.7248347398107</v>
+        <v>108.4538911674014</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.02056981027913</v>
+        <v>98.10320401040448</v>
       </c>
       <c r="AD2" t="n">
-        <v>58998.8538913214</v>
+        <v>79265.01552533271</v>
       </c>
       <c r="AE2" t="n">
-        <v>80724.8347398107</v>
+        <v>108453.8911674014</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.009676880370955e-06</v>
+        <v>8.619054927269969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>73020.56981027912</v>
+        <v>98103.20401040449</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.61662902682991</v>
+        <v>77.85166950122328</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.9383460514142</v>
+        <v>106.5200887847899</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.02282670898651</v>
+        <v>96.3539610130801</v>
       </c>
       <c r="AD2" t="n">
-        <v>60616.62902682991</v>
+        <v>77851.66950122328</v>
       </c>
       <c r="AE2" t="n">
-        <v>82938.34605141421</v>
+        <v>106520.0887847899</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.961793995691256e-06</v>
+        <v>9.946711820044473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.008680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>75022.82670898651</v>
+        <v>96353.9610130801</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.82205246434354</v>
+        <v>76.36530460695259</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.74643899371986</v>
+        <v>104.4863787626586</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.32642797398954</v>
+        <v>94.51434542113041</v>
       </c>
       <c r="AD2" t="n">
-        <v>56822.05246434353</v>
+        <v>76365.30460695259</v>
       </c>
       <c r="AE2" t="n">
-        <v>77746.43899371986</v>
+        <v>104486.3787626586</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.255997158188828e-06</v>
+        <v>9.308761524006975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.105902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>70326.42797398954</v>
+        <v>94514.34542113042</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.85066873086269</v>
+        <v>77.76980077249313</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.1538371489176</v>
+        <v>106.4080723783479</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.59950602455139</v>
+        <v>96.25263529525292</v>
       </c>
       <c r="AD2" t="n">
-        <v>57850.66873086269</v>
+        <v>77769.80077249312</v>
       </c>
       <c r="AE2" t="n">
-        <v>79153.83714891761</v>
+        <v>106408.0723783479</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.168331311473532e-06</v>
+        <v>9.013118512631864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>71599.50602455139</v>
+        <v>96252.63529525291</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.53120216474385</v>
+        <v>80.12080146642171</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.45321713305522</v>
+        <v>109.6248152466099</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.67943641020372</v>
+        <v>99.16237673889599</v>
       </c>
       <c r="AD2" t="n">
-        <v>59531.20216474385</v>
+        <v>80120.8014664217</v>
       </c>
       <c r="AE2" t="n">
-        <v>81453.21713305522</v>
+        <v>109624.8152466099</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.979487349882935e-06</v>
+        <v>8.464798472411337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>73679.43641020372</v>
+        <v>99162.37673889598</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.63589439076068</v>
+        <v>74.76693576704783</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.12348518784363</v>
+        <v>102.2994200008454</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.85836660151567</v>
+        <v>92.53610693412816</v>
       </c>
       <c r="AD2" t="n">
-        <v>55635.89439076067</v>
+        <v>74766.93576704782</v>
       </c>
       <c r="AE2" t="n">
-        <v>76123.48518784363</v>
+        <v>102299.4200008454</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.375029418174666e-06</v>
+        <v>9.6924499876212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68858.36660151566</v>
+        <v>92536.10693412815</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.88903791084783</v>
+        <v>72.30722756377948</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.7333590861592</v>
+        <v>98.93393872246803</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.69635078041217</v>
+        <v>89.49182246547538</v>
       </c>
       <c r="AD2" t="n">
-        <v>53889.03791084782</v>
+        <v>72307.22756377948</v>
       </c>
       <c r="AE2" t="n">
-        <v>73733.35908615919</v>
+        <v>98933.93872246802</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.435139729780008e-06</v>
+        <v>1.014023343282545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.236111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>66696.35078041218</v>
+        <v>89491.82246547539</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.86404290461501</v>
+        <v>70.71243685157958</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.33091569904394</v>
+        <v>96.75187571283655</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.42775462182109</v>
+        <v>87.51801248693778</v>
       </c>
       <c r="AD2" t="n">
-        <v>52864.04290461501</v>
+        <v>70712.43685157958</v>
       </c>
       <c r="AE2" t="n">
-        <v>72330.91569904394</v>
+        <v>96751.87571283655</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.300370182039795e-06</v>
+        <v>1.019280841691132e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>65427.75462182109</v>
+        <v>87518.01248693778</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.46216717560711</v>
+        <v>85.66836742591467</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.72700453219534</v>
+        <v>117.2152397337215</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.83165532774214</v>
+        <v>106.0283817661878</v>
       </c>
       <c r="AD2" t="n">
-        <v>60462.16717560712</v>
+        <v>85668.36742591466</v>
       </c>
       <c r="AE2" t="n">
-        <v>82727.00453219534</v>
+        <v>117215.2397337215</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.50895758766578e-06</v>
+        <v>9.300172860372825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.668402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>74831.65532774213</v>
+        <v>106028.3817661878</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.37049521584949</v>
+        <v>77.10569581020341</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.49684256191648</v>
+        <v>105.4994146707004</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.00521407883573</v>
+        <v>95.43069860391391</v>
       </c>
       <c r="AD2" t="n">
-        <v>57370.49521584949</v>
+        <v>77105.69581020341</v>
       </c>
       <c r="AE2" t="n">
-        <v>78496.84256191648</v>
+        <v>105499.4146707004</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.201831043570943e-06</v>
+        <v>9.139411942889768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.105902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>71005.21407883574</v>
+        <v>95430.69860391392</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.52646970218009</v>
+        <v>79.95703190099036</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.446741968994</v>
+        <v>109.4007385021835</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.67357922671255</v>
+        <v>98.95968556446391</v>
       </c>
       <c r="AD2" t="n">
-        <v>59526.4697021801</v>
+        <v>79957.03190099036</v>
       </c>
       <c r="AE2" t="n">
-        <v>81446.741968994</v>
+        <v>109400.7385021835</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.940173704385702e-06</v>
+        <v>8.447146489707641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>73673.57922671255</v>
+        <v>98959.68556446391</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.74733405013021</v>
+        <v>102.1612089589227</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.3773324176492</v>
+        <v>139.7814731319879</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.22482911325945</v>
+        <v>126.4409255208382</v>
       </c>
       <c r="AD2" t="n">
-        <v>77747.3340501302</v>
+        <v>102161.2089589227</v>
       </c>
       <c r="AE2" t="n">
-        <v>106377.3324176492</v>
+        <v>139781.4731319879</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.692246460945228e-06</v>
+        <v>7.914184779306743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.170138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>96224.82911325945</v>
+        <v>126440.9255208383</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.53877651974629</v>
+        <v>73.21001312388424</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.62236011529802</v>
+        <v>100.1691697538907</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.50050679905105</v>
+        <v>90.60916478091714</v>
       </c>
       <c r="AD2" t="n">
-        <v>54538.77651974629</v>
+        <v>73210.01312388424</v>
       </c>
       <c r="AE2" t="n">
-        <v>74622.36011529803</v>
+        <v>100169.1697538907</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.407964983981242e-06</v>
+        <v>9.96381063519037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67500.50679905106</v>
+        <v>90609.16478091714</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.26896220411601</v>
+        <v>75.61123933989992</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.98967649905676</v>
+        <v>103.4546333972659</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.64188982969404</v>
+        <v>93.5810683853468</v>
       </c>
       <c r="AD2" t="n">
-        <v>56268.96220411601</v>
+        <v>75611.23933989993</v>
       </c>
       <c r="AE2" t="n">
-        <v>76989.67649905676</v>
+        <v>103454.6333972659</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.302126395587667e-06</v>
+        <v>9.471861865649628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>69641.88982969403</v>
+        <v>93581.06838534679</v>
       </c>
     </row>
   </sheetData>
